--- a/DATA_goal/Junction_Flooding_247.xlsx
+++ b/DATA_goal/Junction_Flooding_247.xlsx
@@ -451,7 +451,7 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -469,13 +469,13 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41679.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.87</v>
+        <v>2.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.77</v>
+        <v>1.58</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.13</v>
+        <v>4.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.82</v>
+        <v>3.98</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>59.67</v>
+        <v>5.97</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.69</v>
+        <v>2.77</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.06</v>
+        <v>1.91</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.18</v>
+        <v>2.52</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.95</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>265.05</v>
+        <v>26.51</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.84</v>
+        <v>4.98</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.09</v>
+        <v>3.31</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.25</v>
+        <v>1.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.67</v>
+        <v>2.97</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.73</v>
+        <v>1.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>52.71</v>
+        <v>5.27</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41679.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.68</v>
+        <v>2.07</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>33.21</v>
+        <v>3.32</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>109.44</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.11</v>
+        <v>3.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41679.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.1</v>
+        <v>2.21</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.15</v>
+        <v>1.62</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>47.66</v>
+        <v>4.77</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.43</v>
+        <v>3.94</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>65.31999999999999</v>
+        <v>6.53</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.76</v>
+        <v>2.68</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.72</v>
+        <v>1.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.12</v>
+        <v>2.01</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.56</v>
+        <v>2.46</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>255.92</v>
+        <v>25.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>48.31</v>
+        <v>4.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.96</v>
+        <v>1.6</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>32.4</v>
+        <v>3.24</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.24</v>
+        <v>1.72</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.15</v>
+        <v>0.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.9</v>
+        <v>3.19</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.75</v>
+        <v>1.47</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.09</v>
+        <v>2.01</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>58.96</v>
+        <v>5.9</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41679.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.45</v>
+        <v>1.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.45</v>
+        <v>1.44</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.53</v>
+        <v>2.95</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.98999999999999</v>
+        <v>9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.06</v>
+        <v>1.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="Y5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="Z5" s="4" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>7.38</v>
-      </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.93</v>
+        <v>2.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41679.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41679.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>40.76</v>
+        <v>4.08</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>33.71</v>
+        <v>3.37</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>51.9</v>
+        <v>5.19</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>22.8</v>
+        <v>2.28</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.15</v>
+        <v>1.52</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.45</v>
+        <v>1.64</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.25</v>
+        <v>1.72</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>216.98</v>
+        <v>21.7</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>41.03</v>
+        <v>4.1</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>27.62</v>
+        <v>2.76</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.7</v>
+        <v>1.47</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>25.86</v>
+        <v>2.59</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>46.61</v>
+        <v>4.66</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41679.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>13.78</v>
+        <v>1.38</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="L8" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
         <v>2.03</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>20.26</v>
-      </c>
       <c r="U8" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41679.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>19.02</v>
+        <v>1.9</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>41.23</v>
+        <v>4.12</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>34.09</v>
+        <v>3.41</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>53.69</v>
+        <v>5.37</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>23.04</v>
+        <v>2.3</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>16.63</v>
+        <v>1.66</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>17.46</v>
+        <v>1.75</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>21.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>219.27</v>
+        <v>21.93</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>41.49</v>
+        <v>4.15</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>27.97</v>
+        <v>2.8</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>26.61</v>
+        <v>2.66</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.72</v>
+        <v>1.07</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>48.35</v>
+        <v>4.83</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41679.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.92</v>
+        <v>0.59</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>17.42</v>
+        <v>1.74</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>28.24</v>
+        <v>2.82</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>6.45</v>
+        <v>0.64</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>7.35</v>
+        <v>0.74</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>88.84</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>17.83</v>
+        <v>1.78</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>6.35</v>
+        <v>0.63</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>25.86</v>
+        <v>2.59</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_247.xlsx
+++ b/DATA_goal/Junction_Flooding_247.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44928.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.14</v>
+        <v>21.43</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.43</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.12</v>
+        <v>21.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>11.28</v>
+        <v>112.77</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.17</v>
+        <v>21.72</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.24</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44928.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.5</v>
+        <v>24.98</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.96</v>
+        <v>19.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.3</v>
+        <v>33.04</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.9</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1</v>
+        <v>10.04</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.74</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13</v>
+        <v>130.01</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.52</v>
+        <v>25.22</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.5</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.38</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.67</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.05</v>
+        <v>30.45</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44928.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.57</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.28</v>
+        <v>42.81</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.47</v>
+        <v>34.67</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.23</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.8</v>
+        <v>58.02</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.19</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.18</v>
+        <v>21.78</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.73</v>
+        <v>227.3</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.31</v>
+        <v>43.07</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.88</v>
+        <v>28.78</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.16</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.92</v>
+        <v>29.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.15</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.29</v>
+        <v>52.91</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44928.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.19</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.55</v>
+        <v>35.51</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.88</v>
+        <v>28.82</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.63</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.1</v>
+        <v>50.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.26</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.09</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.89</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.73</v>
+        <v>187.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.58</v>
+        <v>35.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.51</v>
+        <v>25.08</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.01</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.65</v>
+        <v>46.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_247.xlsx
+++ b/DATA_goal/Junction_Flooding_247.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44928.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.69</v>
+        <v>9.686</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>6.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.91</v>
+        <v>2.907</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21.43</v>
+        <v>21.429</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.75</v>
+        <v>15.753</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.43</v>
+        <v>7.426</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>21.23</v>
+        <v>21.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.042</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.422</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.574</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.294</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.53</v>
+        <v>2.529</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.53</v>
+        <v>10.528</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.37</v>
+        <v>7.369</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.826</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>112.77</v>
+        <v>112.771</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>21.72</v>
+        <v>21.717</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.64</v>
+        <v>13.637</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.42</v>
+        <v>7.423</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.85</v>
+        <v>12.849</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.96</v>
+        <v>5.959</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>6.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.375999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.459</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19.24</v>
+        <v>19.236</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.642</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>9.109999999999999</v>
@@ -759,103 +759,103 @@
         <v>44928.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.32</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.491</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.98</v>
+        <v>24.981</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19.58</v>
+        <v>19.584</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>8.718</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>33.04</v>
+        <v>33.044</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.9</v>
+        <v>13.899</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.14</v>
+        <v>6.144</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.385</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.04</v>
+        <v>10.037</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.74</v>
+        <v>10.741</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.9</v>
+        <v>2.898</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.53</v>
+        <v>12.532</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.02</v>
+        <v>8.022</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.164</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>130.01</v>
+        <v>130.008</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>25.22</v>
+        <v>25.218</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.5</v>
+        <v>16.502</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.74</v>
+        <v>8.741</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.288</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.38</v>
+        <v>17.379</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>6.67</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.83</v>
+        <v>7.833</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.63</v>
+        <v>10.632</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.098</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.45</v>
+        <v>30.451</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>4.46</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
@@ -863,34 +863,34 @@
         <v>44928.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.52</v>
+        <v>19.516</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.57</v>
+        <v>14.568</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.37</v>
+        <v>1.367</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>42.81</v>
+        <v>42.808</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.67</v>
+        <v>34.673</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.23</v>
+        <v>15.227</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>58.02</v>
+        <v>58.019</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.79</v>
+        <v>23.794</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.68</v>
+        <v>10.675</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.32</v>
+        <v>15.317</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>17.19</v>
@@ -899,67 +899,67 @@
         <v>18.29</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.95</v>
+        <v>4.951</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.78</v>
+        <v>21.783</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.892</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.714</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>227.3</v>
+        <v>227.303</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>43.07</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.78</v>
+        <v>28.781</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.16</v>
+        <v>15.156</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.07</v>
+        <v>2.065</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>29.2</v>
+        <v>29.195</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.19</v>
+        <v>11.187</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.15</v>
+        <v>13.155</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.11</v>
+        <v>18.105</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>52.91</v>
+        <v>52.906</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.91</v>
+        <v>7.913</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.79</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44928.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_247.xlsx
+++ b/DATA_goal/Junction_Flooding_247.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44928.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.19</v>
+        <v>16.192</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>12.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.07</v>
+        <v>1.068</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.51</v>
+        <v>35.511</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.82</v>
+        <v>28.822</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>12.63</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>50.96</v>
+        <v>50.956</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.73</v>
+        <v>19.726</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.891999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.74</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.26</v>
+        <v>14.259</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.18</v>
+        <v>15.177</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.11</v>
+        <v>4.107</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>18.09</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.89</v>
+        <v>10.891</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.25</v>
+        <v>187.252</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.79</v>
+        <v>35.785</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.94</v>
+        <v>23.938</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.58</v>
+        <v>12.581</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.7</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.08</v>
+        <v>25.085</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.27</v>
+        <v>9.273</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.01</v>
+        <v>15.009</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.521</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.49</v>
+        <v>46.489</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.57</v>
+        <v>6.575</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.75</v>
+        <v>14.752</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44928.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_247.xlsx
+++ b/DATA_goal/Junction_Flooding_247.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44928.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.192</v>
+        <v>16.19</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>12.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.068</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.511</v>
+        <v>35.51</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.822</v>
+        <v>28.82</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>12.63</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>50.956</v>
+        <v>50.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.726</v>
+        <v>19.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.891999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.74</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.259</v>
+        <v>14.26</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.177</v>
+        <v>15.18</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.107</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.783</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>18.09</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.891</v>
+        <v>10.89</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.694</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.252</v>
+        <v>187.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.785</v>
+        <v>35.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.799</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.938</v>
+        <v>23.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.581</v>
+        <v>12.58</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.7</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.085</v>
+        <v>25.08</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.422</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.273</v>
+        <v>9.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.903</v>
+        <v>10.9</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.009</v>
+        <v>15.01</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.521</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.489</v>
+        <v>46.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.575</v>
+        <v>6.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.752</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44928.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.31</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>
